--- a/biology/Histoire de la zoologie et de la botanique/Wilhelm_Gottlieb_Rosenhauer/Wilhelm_Gottlieb_Rosenhauer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Wilhelm_Gottlieb_Rosenhauer/Wilhelm_Gottlieb_Rosenhauer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilhelm Gottlieb Rosenhauer, ou Wilhelm Gottlob Rosenhauer, (11 septembre 1813 à Wunsiedel - 13 juin 1881 à Erlangen) est un zoologiste bavarois, spécialisé dans l'entomologie.
 Rosenhauer étudie à la médecine à l'Université d'Erlangen et passe un doctorat sur les dytiques et les carabidés. Il devient conservateur à l'institut zoologique d'Erlangen en 1843, et professeur dans le même institut en 1858.
@@ -514,7 +526,9 @@
           <t>Écrits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Die Lauf- und Schwimmkäfer Erlangens mit besonderer Berücksichtigung ihres Vorkommens und ihres Verhältnisses zu denen einiger anderer Staaten Europas, Erlangen: Blaesing 1842, Digitalisat
 Die Thiere Andalusiens nach dem Resultate einer Reise zusammengestellt nebst den Beschreibungen von 249 neuen oder bis jetzt noch unbeschriebenen Gattungen und Arten, Erlangen: Blaesing 1856, Biodiversity Heritage Library</t>
